--- a/schedule_2layer_4users.xlsx
+++ b/schedule_2layer_4users.xlsx
@@ -565,7 +565,7 @@
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>Generated: 2026-01-20 12:01</t>
+          <t>Generated: 2026-01-20 12:24</t>
         </is>
       </c>
     </row>
